--- a/public/sf9.xlsx
+++ b/public/sf9.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IN" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="117">
   <si>
     <t>REPORT ON LEARNING PROGRESS AND ACHIEVEMENT</t>
   </si>
@@ -347,9 +347,6 @@
     <t>your child's progress.</t>
   </si>
   <si>
-    <t>MA. LOURDES C. VALONDO</t>
-  </si>
-  <si>
     <t>Teacher</t>
   </si>
   <si>
@@ -395,18 +392,21 @@
     <t>Date:</t>
   </si>
   <si>
+    <t>MA. LOURDES C. VALONDO</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Principal IV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="65">
     <font>
@@ -697,46 +697,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -747,37 +710,6 @@
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -813,6 +745,14 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -821,7 +761,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,8 +798,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -868,7 +868,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +910,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,19 +928,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,25 +940,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -952,7 +976,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,85 +1042,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1242,13 +1242,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1301,51 +1323,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1354,136 +1357,133 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="52" fillId="4" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="5" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="58" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="60" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="7" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="62" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="61" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1916,52 +1916,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2356,7 +2356,7 @@
   <sheetPr/>
   <dimension ref="A1:AT1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F7" sqref="F7:L7"/>
     </sheetView>
   </sheetViews>
@@ -44888,8 +44888,8 @@
   <sheetPr/>
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="O9:AA9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30:T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -45343,9 +45343,7 @@
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="11:22">
       <c r="K22" s="34"/>
-      <c r="O22" s="45" t="s">
-        <v>100</v>
-      </c>
+      <c r="O22" s="45"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -45353,16 +45351,16 @@
       <c r="T22" s="2"/>
       <c r="U22" s="21"/>
       <c r="V22" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:27">
       <c r="A23" s="21"/>
       <c r="B23" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O23" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U23" s="21"/>
       <c r="V23" s="21"/>
@@ -45390,7 +45388,7 @@
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:27">
       <c r="A25" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="24"/>
@@ -45403,7 +45401,7 @@
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="O25" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AA25" s="34"/>
     </row>
@@ -45419,7 +45417,7 @@
       <c r="L26" s="26"/>
       <c r="M26" s="48"/>
       <c r="O26" s="44" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
@@ -45427,7 +45425,7 @@
       <c r="S26" s="67"/>
       <c r="T26" s="67"/>
       <c r="U26" s="68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="W26" s="25"/>
       <c r="X26" s="25"/>
@@ -45437,7 +45435,7 @@
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:27">
       <c r="A27" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D27" s="27"/>
       <c r="E27" s="28"/>
@@ -45450,7 +45448,7 @@
       <c r="L27" s="28"/>
       <c r="M27" s="48"/>
       <c r="O27" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P27" s="21"/>
       <c r="Q27" s="21"/>
@@ -45477,7 +45475,7 @@
       <c r="L28" s="30"/>
       <c r="M28" s="24"/>
       <c r="O28" s="44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P28" s="44"/>
       <c r="Q28" s="44"/>
@@ -45494,7 +45492,7 @@
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:27">
       <c r="A29" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
@@ -45531,9 +45529,7 @@
       <c r="K30" s="30"/>
       <c r="L30" s="30"/>
       <c r="M30" s="24"/>
-      <c r="O30" s="45" t="s">
-        <v>100</v>
-      </c>
+      <c r="O30" s="45"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
@@ -45549,7 +45545,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1" spans="1:22">
       <c r="A31" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
@@ -45562,11 +45558,11 @@
       <c r="L31" s="31"/>
       <c r="M31" s="24"/>
       <c r="O31" s="46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="U31" s="70"/>
       <c r="V31" s="46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="4:27">
@@ -45609,14 +45605,14 @@
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
       <c r="O33" s="53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AA33" s="34"/>
     </row>
     <row r="34" ht="14.25" customHeight="1" spans="11:27">
       <c r="K34" s="34"/>
       <c r="O34" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P34" s="21"/>
       <c r="Q34" s="43"/>
@@ -45634,7 +45630,7 @@
     <row r="35" ht="14.25" customHeight="1" spans="11:27">
       <c r="K35" s="34"/>
       <c r="O35" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="P35" s="21"/>
       <c r="Q35" s="71"/>
@@ -45674,7 +45670,7 @@
       <c r="S37" s="52"/>
       <c r="T37" s="52"/>
       <c r="U37" s="73" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
